--- a/Nestlist.xlsx
+++ b/Nestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK242\Artificial_Intelligence\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B6BEA-1B73-42E4-B41E-38CF6ED0A9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B8D549-0090-4AA9-ACED-9D1A1E12DB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>WS2182B</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>MAX39875A</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>LRC</t>
+  </si>
+  <si>
+    <t>BLCK</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -345,17 +372,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
